--- a/tag/reverse_ropo_20221123A/output/中国人民银行.xlsx
+++ b/tag/reverse_ropo_20221123A/output/中国人民银行.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:K147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3798,6 +3798,27 @@
         <v>2290</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>44888</v>
+      </c>
+      <c r="C147" t="n">
+        <v>20</v>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
